--- a/DataSet/Integration_DataSet/Extracts/DWE_LIQ/EVG_DWE_LIQEXTRACT_TestData.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DWE_LIQ/EVG_DWE_LIQEXTRACT_TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DWE_LIQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE2FC00-CEC1-441A-9E1A-ABFB29089B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42F633D-0DDD-4169-BC06-C606B32FF394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DWE" sheetId="1" r:id="rId1"/>
@@ -215,18 +215,6 @@
     <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DWE_LIQ\DWE_LIQ_Extracts\DWELIQ_Multi_E2E_002\ZONE2\</t>
   </si>
   <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>CCB_LIQ_EUR_20200709.tar.gz.gpg</t>
-  </si>
-  <si>
-    <t>CCB_LIQ_EUR_20200709.tar.gz</t>
-  </si>
-  <si>
-    <t>CCB_LIQ_EUR_20200709.json</t>
-  </si>
-  <si>
     <t>Column Colors</t>
   </si>
   <si>
@@ -339,6 +327,18 @@
   </si>
   <si>
     <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>2021-11-02</t>
+  </si>
+  <si>
+    <t>CCB_LIQ_EUR_20211102.tar.gz.gpg</t>
+  </si>
+  <si>
+    <t>CCB_LIQ_EUR_20211102.tar.gz</t>
+  </si>
+  <si>
+    <t>CCB_LIQ_EUR_20211102.json</t>
   </si>
 </sst>
 </file>
@@ -757,30 +757,30 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I9" sqref="I9"/>
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="112.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="27.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -839,7 +839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -921,7 +921,7 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
@@ -962,7 +962,7 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
@@ -1003,7 +1003,7 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -1044,7 +1044,7 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>46</v>
       </c>
@@ -1085,7 +1085,7 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>28</v>
@@ -1138,7 +1138,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
@@ -1158,19 +1158,19 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="5" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>55</v>
@@ -1191,19 +1191,19 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1221,15 +1221,15 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="113" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="111.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="111.5546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1237,430 +1237,430 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
